--- a/TESZTELES.xlsx
+++ b/TESZTELES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruder.milan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE9C5B3-1EDE-482B-B8A7-863072FE1153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747118A-50DB-4675-A702-613AC066FCC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Projekt Neve:</t>
   </si>
@@ -190,6 +190,35 @@
   </si>
   <si>
     <t>sikeres kijelentkezés</t>
+  </si>
+  <si>
+    <t>Admin bérletmódosítás
+Alkalom növelése</t>
+  </si>
+  <si>
+    <t>1. Admin gombra kattintás
+2.Tetszőleges felhasználó kiválasztása
+3. Alkalmak mellett "+" gomb megnyomása</t>
+  </si>
+  <si>
+    <t>1. Böngésző megnyitása
+2: Következő URL megnyitása:
+http://localhost:3000</t>
+  </si>
+  <si>
+    <t>alkalmak száma növekszik 1-el</t>
+  </si>
+  <si>
+    <t>Admin bérletmódosítás
+Alkalom csökkentése</t>
+  </si>
+  <si>
+    <t>1. Admin gombra kattintás
+2.Tetszőleges felhasználó kiválasztása
+3. Alkalmak mellett "-" gomb megnyomása</t>
+  </si>
+  <si>
+    <t>alkalmak száma csökken 1-el</t>
   </si>
 </sst>
 </file>
@@ -505,7 +534,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -567,6 +596,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="14" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -781,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1119,7 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1105,6 +1143,66 @@
       </c>
       <c r="J13" s="22">
         <v>45737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="27">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>9</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="27">
+        <v>45750</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
